--- a/data/excel/corporateprofiling.xlsx
+++ b/data/excel/corporateprofiling.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4F1517-300A-42DB-8229-E3A209E890B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -177,7 +176,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -552,11 +551,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,8 +749,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="Y2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="P2" r:id="rId1"/>
+    <hyperlink ref="Y2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
